--- a/Energia_DHI.xlsx
+++ b/Energia_DHI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="9">
   <si>
     <t>DHI</t>
   </si>
@@ -26,15 +26,6 @@
   </si>
   <si>
     <t>Porcentagem</t>
-  </si>
-  <si>
-    <t>Faixa2</t>
-  </si>
-  <si>
-    <t>Contx</t>
-  </si>
-  <si>
-    <t>Porcen</t>
   </si>
   <si>
     <t>G &lt;= 300</t>
@@ -407,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,18 +417,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,17 +442,17 @@
       <c r="D2">
         <v>0.9793597304128053</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
         <v>16349</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>86.08361415332772</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -473,17 +465,17 @@
       <c r="D3">
         <v>12.05770850884583</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>2643</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>13.91638584667228</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -496,17 +488,17 @@
       <c r="D4">
         <v>16.36478517270429</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>6</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -519,17 +511,17 @@
       <c r="D5">
         <v>18.52358887952822</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -542,17 +534,17 @@
       <c r="D6">
         <v>19.2396798652064</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -566,7 +558,7 @@
         <v>18.91849199663016</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -580,7 +572,7 @@
         <v>6.639637742207245</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -594,7 +586,7 @@
         <v>4.101727042965459</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -608,7 +600,7 @@
         <v>1.732308340353833</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -622,7 +614,7 @@
         <v>0.8898483572030328</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -636,7 +628,7 @@
         <v>0.3475147430497051</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -650,7 +642,7 @@
         <v>0.1316343723673125</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -664,7 +656,7 @@
         <v>0.05265374894692502</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -678,7 +670,7 @@
         <v>0.02106149957877001</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>0</v>
       </c>
